--- a/OUTPUT/BI_ABASTECIMENTO/OS_GERAL.xlsx
+++ b/OUTPUT/BI_ABASTECIMENTO/OS_GERAL.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F170"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3834,19 +3834,99 @@
         <v>46027</v>
       </c>
       <c r="B170" t="n">
-        <v>523</v>
+        <v>2591</v>
       </c>
       <c r="C170" t="n">
+        <v>877</v>
+      </c>
+      <c r="D170" t="n">
+        <v>265</v>
+      </c>
+      <c r="E170" t="n">
+        <v>1449</v>
+      </c>
+      <c r="F170" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>46028</v>
+      </c>
+      <c r="B171" t="n">
+        <v>3321</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1048</v>
+      </c>
+      <c r="D171" t="n">
+        <v>485</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1788</v>
+      </c>
+      <c r="F171" t="n">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>46029</v>
+      </c>
+      <c r="B172" t="n">
+        <v>3235</v>
+      </c>
+      <c r="C172" t="n">
+        <v>826</v>
+      </c>
+      <c r="D172" t="n">
+        <v>656</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1753</v>
+      </c>
+      <c r="F172" t="n">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>46030</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3366</v>
+      </c>
+      <c r="C173" t="n">
+        <v>828</v>
+      </c>
+      <c r="D173" t="n">
+        <v>746</v>
+      </c>
+      <c r="E173" t="n">
+        <v>1792</v>
+      </c>
+      <c r="F173" t="n">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>46031</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1387</v>
+      </c>
+      <c r="C174" t="n">
+        <v>106</v>
+      </c>
+      <c r="D174" t="n">
+        <v>565</v>
+      </c>
+      <c r="E174" t="n">
+        <v>716</v>
+      </c>
+      <c r="F174" t="n">
         <v>0</v>
-      </c>
-      <c r="D170" t="n">
-        <v>258</v>
-      </c>
-      <c r="E170" t="n">
-        <v>265</v>
-      </c>
-      <c r="F170" t="n">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/OUTPUT/BI_ABASTECIMENTO/OS_GERAL.xlsx
+++ b/OUTPUT/BI_ABASTECIMENTO/OS_GERAL.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3914,18 +3914,38 @@
         <v>46031</v>
       </c>
       <c r="B174" t="n">
-        <v>1387</v>
+        <v>3343</v>
       </c>
       <c r="C174" t="n">
-        <v>106</v>
+        <v>847</v>
       </c>
       <c r="D174" t="n">
-        <v>565</v>
+        <v>716</v>
       </c>
       <c r="E174" t="n">
-        <v>716</v>
+        <v>1780</v>
       </c>
       <c r="F174" t="n">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>46032</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1282</v>
+      </c>
+      <c r="C175" t="n">
+        <v>110</v>
+      </c>
+      <c r="D175" t="n">
+        <v>505</v>
+      </c>
+      <c r="E175" t="n">
+        <v>667</v>
+      </c>
+      <c r="F175" t="n">
         <v>0</v>
       </c>
     </row>
